--- a/examples/Excel/orflib-0.7.0-examples.xlsx
+++ b/examples/Excel/orflib-0.7.0-examples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michalis\Documents\Develop\ORF531-F2018\orflib\examples\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A5FB7F-FE96-4FE7-841D-81B1B2E8D59C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23560D93-744B-498F-B45B-DDFD09CB8C54}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="15135" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -735,7 +735,7 @@
       </c>
       <c r="B2" s="32" t="str">
         <f ca="1">_xll.ORF.VERSION()</f>
-        <v>0.7.0-debug</v>
+        <v>0.6.0-debug</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.4">
@@ -763,15 +763,14 @@
         <v>0</v>
       </c>
       <c r="D5" s="2" t="str">
-        <f ca="1">_xll.ORF.YCCREATE($B$4, A7:A14, B7:B14,$B$5)</f>
-        <v>USD¤1</v>
+        <f>_xll.ORF.YCCREATE($B$4, A7:A14, B7:B14,$B$5)</f>
+        <v>USD¤5</v>
       </c>
       <c r="H5" s="17" t="str">
-        <f t="array" aca="1" ref="H5:I7" ca="1">_xll.ORF.MKTLIST()</f>
+        <f t="array" ref="H5:I7">_xll.ORF.MKTLIST()</f>
         <v>YieldCurves</v>
       </c>
       <c r="I5" s="18" t="str">
-        <f ca="1"/>
         <v>Volatilities</v>
       </c>
     </row>
@@ -783,11 +782,9 @@
         <v>2</v>
       </c>
       <c r="H6" s="15" t="str">
-        <f ca="1"/>
         <v>USD</v>
       </c>
       <c r="I6" s="19" t="str">
-        <f ca="1"/>
         <v/>
       </c>
     </row>
@@ -800,11 +797,9 @@
         <v>0.01</v>
       </c>
       <c r="H7" s="16" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="I7" s="20" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -9142,7 +9137,7 @@
       </c>
       <c r="B10" s="3" t="str">
         <f ca="1">YIELDCURVE!D5</f>
-        <v>USD¤1</v>
+        <v>USD¤5</v>
       </c>
       <c r="C10" s="3"/>
     </row>
@@ -9474,7 +9469,7 @@
       </c>
       <c r="G4" s="3" t="str">
         <f ca="1">YIELDCURVE!D5</f>
-        <v>USD¤1</v>
+        <v>USD¤5</v>
       </c>
       <c r="L4" s="3"/>
       <c r="N4" s="3"/>
@@ -17991,7 +17986,7 @@
       </c>
       <c r="B25" s="28">
         <f t="array" aca="1" ref="B25:B26" ca="1">_xll.ORF.ASIANBASKETBSMC($B$4, $B$5, $A$9:$A$12, $D$9:$D$13, $F$9:$F$13, $G$4, $E$9:$E$13, $G$9:$G$13, $I$9:$M$13, $A$17:$B$18, $B$22)</f>
-        <v>11.002174520163491</v>
+        <v>10.893636895573684</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.35">
@@ -18000,7 +17995,7 @@
       </c>
       <c r="B26" s="28">
         <f ca="1"/>
-        <v>4.6122220324402954E-2</v>
+        <v>4.5929998749836977E-2</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.35">
